--- a/product.imagen.xlsx
+++ b/product.imagen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F4B91C-7C6E-A047-9A9E-EBCBD5C9E308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227790BF-F054-1F4D-91CF-1E4FDD9461B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1180" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1246,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1678,712 +1678,708 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
         <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
         <v>212</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B44" t="s">
         <v>212</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B45" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B47" t="s">
         <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="B51" t="s">
+        <v>247</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
         <v>247</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B62" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B65" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>168</v>
-      </c>
-      <c r="B67" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C69" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>174</v>
+      </c>
+      <c r="B70" t="s">
+        <v>253</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B72" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B73" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>178</v>
-      </c>
-      <c r="B77" t="s">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>181</v>
+        <v>185</v>
+      </c>
+      <c r="B81" t="s">
+        <v>269</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B84" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B85" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C85" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>191</v>
+      </c>
+      <c r="B87" t="s">
+        <v>265</v>
       </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B88" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C88" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B89" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>194</v>
+      </c>
+      <c r="B90" t="s">
+        <v>271</v>
       </c>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B91" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B93" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C94" t="s">
-        <v>266</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B95" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C95" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C97" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>197</v>
-      </c>
-      <c r="B98" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>198</v>
-      </c>
-      <c r="B99" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="C99" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>199</v>
-      </c>
-      <c r="B100" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>200</v>
-      </c>
-      <c r="B101" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="C101" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>257</v>
+      </c>
+      <c r="C103" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>202</v>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>257</v>
       </c>
       <c r="C104" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>203</v>
-      </c>
-      <c r="C106" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>204</v>
-      </c>
-      <c r="C107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>205</v>
-      </c>
-      <c r="C108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>206</v>
-      </c>
-      <c r="B110" t="s">
-        <v>257</v>
-      </c>
-      <c r="C110" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>207</v>
-      </c>
-      <c r="B111" t="s">
-        <v>257</v>
-      </c>
-      <c r="C111" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>208</v>
-      </c>
-      <c r="B112" t="s">
-        <v>257</v>
-      </c>
-      <c r="C112" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>209</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C105" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="106" spans="1:3" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>77</v>
       </c>
     </row>

--- a/product.imagen.xlsx
+++ b/product.imagen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227790BF-F054-1F4D-91CF-1E4FDD9461B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B57BB2-4FC5-054C-8AA6-B6BC279EE139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1180" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="273">
   <si>
     <t>producto_20100_007</t>
   </si>
@@ -844,6 +844,9 @@
   </si>
   <si>
     <t>asus-gl704gw</t>
+  </si>
+  <si>
+    <t>lenovo-a540</t>
   </si>
 </sst>
 </file>
@@ -1248,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2371,6 +2374,9 @@
       <c r="A105" t="s">
         <v>209</v>
       </c>
+      <c r="B105" t="s">
+        <v>272</v>
+      </c>
       <c r="C105" t="s">
         <v>142</v>
       </c>

--- a/product.imagen.xlsx
+++ b/product.imagen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B57BB2-4FC5-054C-8AA6-B6BC279EE139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4942C1-D5E6-804A-B184-12672DA712FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1180" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="1280" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imagenes" sheetId="1" r:id="rId1"/>
@@ -28,97 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="273">
-  <si>
-    <t>producto_20100_007</t>
-  </si>
-  <si>
-    <t>producto_20100_001</t>
-  </si>
-  <si>
-    <t>producto_20100_002</t>
-  </si>
-  <si>
-    <t>producto_20100_003</t>
-  </si>
-  <si>
-    <t>producto_20100_004</t>
-  </si>
-  <si>
-    <t>producto_20100_005</t>
-  </si>
-  <si>
-    <t>producto_20100_006</t>
-  </si>
-  <si>
-    <t>producto_20100_008</t>
-  </si>
-  <si>
-    <t>producto_20100_009</t>
-  </si>
-  <si>
-    <t>producto_20100_010</t>
-  </si>
-  <si>
-    <t>producto_20100_011</t>
-  </si>
-  <si>
-    <t>producto_20100_012</t>
-  </si>
-  <si>
-    <t>producto_20100_013</t>
-  </si>
-  <si>
-    <t>producto_20100_014</t>
-  </si>
-  <si>
-    <t>producto_20100_015</t>
-  </si>
-  <si>
-    <t>producto_20100_016</t>
-  </si>
-  <si>
-    <t>producto_20100_017</t>
-  </si>
-  <si>
-    <t>producto_20100_018</t>
-  </si>
-  <si>
-    <t>producto_20100_019</t>
-  </si>
-  <si>
-    <t>producto_20100_020</t>
-  </si>
-  <si>
-    <t>producto_20100_021</t>
-  </si>
-  <si>
-    <t>producto_20100_022</t>
-  </si>
-  <si>
-    <t>producto_20100_023</t>
-  </si>
-  <si>
-    <t>producto_20100_024</t>
-  </si>
-  <si>
-    <t>producto_20100_025</t>
-  </si>
-  <si>
-    <t>producto_20100_026</t>
-  </si>
-  <si>
-    <t>producto_20100_027</t>
-  </si>
-  <si>
-    <t>producto_20100_028</t>
-  </si>
-  <si>
-    <t>producto_20100_029</t>
-  </si>
-  <si>
-    <t>producto_20100_030</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="272">
   <si>
     <t>Apple - iPhone 8 64GB</t>
   </si>
@@ -234,36 +144,6 @@
     <t>Xiaomi - Mi 9T 128GB</t>
   </si>
   <si>
-    <t>producto_20100_031</t>
-  </si>
-  <si>
-    <t>producto_20100_032</t>
-  </si>
-  <si>
-    <t>producto_20100_033</t>
-  </si>
-  <si>
-    <t>producto_20100_034</t>
-  </si>
-  <si>
-    <t>producto_20100_035</t>
-  </si>
-  <si>
-    <t>producto_20100_036</t>
-  </si>
-  <si>
-    <t>producto_20100_037</t>
-  </si>
-  <si>
-    <t>producto_20100_038</t>
-  </si>
-  <si>
-    <t>producto_000000</t>
-  </si>
-  <si>
-    <t>Producto Ejemplo</t>
-  </si>
-  <si>
     <t>Apple - Macbook Air 13.3" Laptop - Intel Core i5 - Memoria 8GB - SSD 128GB</t>
   </si>
   <si>
@@ -847,6 +727,123 @@
   </si>
   <si>
     <t>lenovo-a540</t>
+  </si>
+  <si>
+    <t>producto_20100_01001</t>
+  </si>
+  <si>
+    <t>producto_20100_01002</t>
+  </si>
+  <si>
+    <t>producto_20100_01003</t>
+  </si>
+  <si>
+    <t>producto_20100_01004</t>
+  </si>
+  <si>
+    <t>producto_20100_01005</t>
+  </si>
+  <si>
+    <t>producto_20100_01006</t>
+  </si>
+  <si>
+    <t>producto_20100_01007</t>
+  </si>
+  <si>
+    <t>producto_20100_01008</t>
+  </si>
+  <si>
+    <t>producto_20100_01009</t>
+  </si>
+  <si>
+    <t>producto_20100_01010</t>
+  </si>
+  <si>
+    <t>producto_20100_01011</t>
+  </si>
+  <si>
+    <t>producto_20100_02001</t>
+  </si>
+  <si>
+    <t>producto_20100_02002</t>
+  </si>
+  <si>
+    <t>producto_20100_02003</t>
+  </si>
+  <si>
+    <t>producto_20100_02004</t>
+  </si>
+  <si>
+    <t>producto_20100_02005</t>
+  </si>
+  <si>
+    <t>producto_20100_02006</t>
+  </si>
+  <si>
+    <t>producto_20100_02007</t>
+  </si>
+  <si>
+    <t>producto_20100_02008</t>
+  </si>
+  <si>
+    <t>producto_20100_02009</t>
+  </si>
+  <si>
+    <t>producto_20100_02010</t>
+  </si>
+  <si>
+    <t>producto_20100_02011</t>
+  </si>
+  <si>
+    <t>producto_20100_02012</t>
+  </si>
+  <si>
+    <t>producto_20100_02013</t>
+  </si>
+  <si>
+    <t>producto_20100_02014</t>
+  </si>
+  <si>
+    <t>producto_20100_03001</t>
+  </si>
+  <si>
+    <t>producto_20100_03002</t>
+  </si>
+  <si>
+    <t>producto_20100_03003</t>
+  </si>
+  <si>
+    <t>producto_20100_03004</t>
+  </si>
+  <si>
+    <t>producto_20100_03005</t>
+  </si>
+  <si>
+    <t>producto_20100_03006</t>
+  </si>
+  <si>
+    <t>producto_20100_03007</t>
+  </si>
+  <si>
+    <t>producto_20100_03008</t>
+  </si>
+  <si>
+    <t>producto_20100_03009</t>
+  </si>
+  <si>
+    <t>producto_20100_03010</t>
+  </si>
+  <si>
+    <t>producto_20100_03011</t>
+  </si>
+  <si>
+    <t>producto_20100_03012</t>
+  </si>
+  <si>
+    <t>producto_20100_03013</t>
+  </si>
+  <si>
+    <t>FIN</t>
   </si>
 </sst>
 </file>
@@ -873,18 +870,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -907,10 +898,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,1144 +1240,1142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="77.5" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>233</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>234</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>235</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>236</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>237</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>238</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>239</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" t="s">
         <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>231</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" t="s">
         <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" t="s">
         <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" t="s">
         <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>235</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" t="s">
         <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" t="s">
         <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>237</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" t="s">
-        <v>238</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>60</v>
+        <v>263</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>264</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>240</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>62</v>
+        <v>265</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" t="s">
-        <v>240</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>266</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>241</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>64</v>
+        <v>267</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" t="s">
-        <v>241</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>65</v>
+        <v>268</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>66</v>
+        <v>269</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s">
-        <v>243</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" t="s">
-        <v>123</v>
+        <v>270</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" t="s">
-        <v>244</v>
-      </c>
-      <c r="C46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>204</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>167</v>
-      </c>
-      <c r="B63" t="s">
-        <v>252</v>
-      </c>
-      <c r="C63" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>213</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70" t="s">
-        <v>253</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="C76" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>181</v>
+        <v>138</v>
+      </c>
+      <c r="B77" t="s">
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>182</v>
+        <v>139</v>
+      </c>
+      <c r="B78" t="s">
+        <v>215</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>183</v>
+        <v>140</v>
+      </c>
+      <c r="B79" t="s">
+        <v>216</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>184</v>
-      </c>
-      <c r="B80" t="s">
-        <v>269</v>
-      </c>
-      <c r="C80" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>185</v>
-      </c>
-      <c r="B81" t="s">
-        <v>269</v>
+        <v>141</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="C83" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="B84" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="B85" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="C86" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>191</v>
-      </c>
-      <c r="B87" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="C87" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>194</v>
-      </c>
-      <c r="B90" t="s">
-        <v>271</v>
+        <v>150</v>
       </c>
       <c r="C90" t="s">
-        <v>266</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="B91" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="C91" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="B92" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="C92" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="B93" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>200</v>
-      </c>
-      <c r="B96" t="s">
-        <v>262</v>
-      </c>
-      <c r="C96" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B97" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="C97" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>202</v>
+        <v>157</v>
+      </c>
+      <c r="B98" t="s">
+        <v>218</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>203</v>
+        <v>158</v>
+      </c>
+      <c r="B99" t="s">
+        <v>218</v>
       </c>
       <c r="C99" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>204</v>
+        <v>159</v>
+      </c>
+      <c r="B100" t="s">
+        <v>221</v>
       </c>
       <c r="C100" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>205</v>
+        <v>160</v>
+      </c>
+      <c r="B101" t="s">
+        <v>222</v>
       </c>
       <c r="C101" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="B102" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="C102" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>207</v>
-      </c>
-      <c r="B103" t="s">
-        <v>257</v>
-      </c>
-      <c r="C103" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>208</v>
-      </c>
-      <c r="B104" t="s">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="C104" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>209</v>
-      </c>
-      <c r="B105" t="s">
-        <v>272</v>
-      </c>
-      <c r="C105" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>77</v>
+        <v>163</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B111" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>168</v>
+      </c>
+      <c r="B112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>169</v>
+      </c>
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/product.imagen.xlsx
+++ b/product.imagen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4942C1-D5E6-804A-B184-12672DA712FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A89619-F0DE-E04E-8374-5017C012322A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="1280" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1243,549 +1243,549 @@
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>103</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
         <v>170</v>
-      </c>
-      <c r="C40" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>104</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
         <v>171</v>
-      </c>
-      <c r="C41" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>105</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
         <v>171</v>
-      </c>
-      <c r="C42" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>106</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
         <v>172</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>107</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
         <v>172</v>
-      </c>
-      <c r="C44" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>108</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
         <v>172</v>
-      </c>
-      <c r="C45" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>109</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
         <v>204</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>110</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
         <v>204</v>
-      </c>
-      <c r="C48" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>111</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
         <v>204</v>
-      </c>
-      <c r="C49" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>112</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
         <v>205</v>
-      </c>
-      <c r="C50" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>113</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B51" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1793,194 +1793,194 @@
       <c r="A52" t="s">
         <v>114</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" t="s">
         <v>206</v>
-      </c>
-      <c r="C52" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>115</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
         <v>207</v>
-      </c>
-      <c r="C53" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>116</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
         <v>207</v>
-      </c>
-      <c r="C54" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>117</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s">
         <v>207</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>118</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
         <v>208</v>
-      </c>
-      <c r="C56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>119</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" t="s">
         <v>208</v>
-      </c>
-      <c r="C57" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>120</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
         <v>209</v>
-      </c>
-      <c r="C58" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>121</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" t="s">
         <v>210</v>
-      </c>
-      <c r="C59" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>122</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" t="s">
         <v>210</v>
-      </c>
-      <c r="C60" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
         <v>211</v>
-      </c>
-      <c r="C61" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
         <v>211</v>
-      </c>
-      <c r="C62" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>125</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
         <v>212</v>
-      </c>
-      <c r="C64" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>126</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" t="s">
         <v>212</v>
-      </c>
-      <c r="C65" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>127</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" t="s">
         <v>212</v>
-      </c>
-      <c r="C66" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>128</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
         <v>213</v>
-      </c>
-      <c r="C67" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>129</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
         <v>213</v>
-      </c>
-      <c r="C68" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>130</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
         <v>213</v>
-      </c>
-      <c r="C69" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B70" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1988,106 +1988,106 @@
       <c r="A71" t="s">
         <v>132</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" t="s">
         <v>212</v>
-      </c>
-      <c r="C71" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>133</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" t="s">
         <v>212</v>
-      </c>
-      <c r="C72" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>134</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" t="s">
         <v>213</v>
-      </c>
-      <c r="C73" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>135</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" t="s">
         <v>214</v>
-      </c>
-      <c r="C74" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>136</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" t="s">
         <v>214</v>
-      </c>
-      <c r="C75" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>137</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" t="s">
         <v>215</v>
-      </c>
-      <c r="C76" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>138</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" t="s">
         <v>215</v>
-      </c>
-      <c r="C77" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>139</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" t="s">
         <v>215</v>
-      </c>
-      <c r="C78" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>140</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" t="s">
         <v>216</v>
-      </c>
-      <c r="C79" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>141</v>
       </c>
-      <c r="C81" t="s">
+      <c r="B81" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       <c r="A82" t="s">
         <v>142</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B82" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       <c r="A83" t="s">
         <v>143</v>
       </c>
-      <c r="C83" t="s">
+      <c r="B83" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2111,29 +2111,29 @@
       <c r="A84" t="s">
         <v>144</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
         <v>229</v>
-      </c>
-      <c r="C84" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>145</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" t="s">
         <v>229</v>
-      </c>
-      <c r="C85" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>146</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B86" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       <c r="A87" t="s">
         <v>147</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B87" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2149,29 +2149,29 @@
       <c r="A88" t="s">
         <v>148</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" t="s">
         <v>223</v>
-      </c>
-      <c r="C88" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>149</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" t="s">
         <v>224</v>
-      </c>
-      <c r="C89" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>150</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B90" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2179,128 +2179,128 @@
       <c r="A91" t="s">
         <v>151</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" t="s">
         <v>225</v>
-      </c>
-      <c r="C91" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>152</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" t="s">
         <v>230</v>
-      </c>
-      <c r="C92" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>153</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" t="s">
         <v>228</v>
-      </c>
-      <c r="C93" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>154</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" t="s">
         <v>231</v>
-      </c>
-      <c r="C94" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>155</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" t="s">
         <v>227</v>
-      </c>
-      <c r="C95" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>156</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" t="s">
         <v>219</v>
-      </c>
-      <c r="C97" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>157</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" t="s">
         <v>218</v>
-      </c>
-      <c r="C98" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>158</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" t="s">
         <v>218</v>
-      </c>
-      <c r="C99" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>159</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" t="s">
         <v>221</v>
-      </c>
-      <c r="C100" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>160</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" t="s">
         <v>222</v>
-      </c>
-      <c r="C101" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>161</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" t="s">
         <v>220</v>
-      </c>
-      <c r="C102" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>162</v>
       </c>
-      <c r="C104" t="s">
+      <c r="B104" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2308,16 +2308,16 @@
       <c r="A106" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>164</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B107" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="A108" t="s">
         <v>165</v>
       </c>
-      <c r="C108" t="s">
+      <c r="B108" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2333,44 +2333,44 @@
       <c r="A110" t="s">
         <v>166</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" t="s">
         <v>217</v>
-      </c>
-      <c r="C110" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>167</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" t="s">
         <v>217</v>
-      </c>
-      <c r="C111" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>168</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C112" t="s">
         <v>217</v>
-      </c>
-      <c r="C112" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>169</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C113" t="s">
         <v>232</v>
-      </c>
-      <c r="C113" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">

--- a/product.imagen.xlsx
+++ b/product.imagen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A89619-F0DE-E04E-8374-5017C012322A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DFD705-1E1C-7149-B5E3-4084302620CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="1280" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/product.imagen.xlsx
+++ b/product.imagen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DFD705-1E1C-7149-B5E3-4084302620CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EABAC2-354B-9447-A57C-D7C26BC88B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="1280" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1243,549 +1243,549 @@
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C41" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C43" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C45" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C47" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C48" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C49" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C50" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1793,194 +1793,194 @@
       <c r="A52" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C52" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C53" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C54" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C55" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C56" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C57" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C58" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C59" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C60" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C61" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C62" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C64" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C65" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>127</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C66" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C67" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C68" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C69" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1988,106 +1988,106 @@
       <c r="A71" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C71" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C72" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>134</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C73" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C74" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C75" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C76" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C77" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>139</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C78" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C79" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>141</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       <c r="A82" t="s">
         <v>142</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       <c r="A83" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2111,29 +2111,29 @@
       <c r="A84" t="s">
         <v>144</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C84" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>145</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C85" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>146</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       <c r="A87" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2149,29 +2149,29 @@
       <c r="A88" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
+        <v>223</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C88" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C89" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>150</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2179,128 +2179,128 @@
       <c r="A91" t="s">
         <v>151</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C91" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>152</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
+        <v>230</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C92" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>153</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
+        <v>228</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C93" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C94" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
+        <v>227</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C95" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>156</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C97" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>157</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C98" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>158</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C99" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>159</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C100" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>160</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C101" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>161</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C102" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>162</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2308,16 +2308,16 @@
       <c r="A106" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>164</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="A108" t="s">
         <v>165</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2333,44 +2333,44 @@
       <c r="A110" t="s">
         <v>166</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C110" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>167</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C111" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>168</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C112" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>169</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C113" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">

--- a/product.imagen.xlsx
+++ b/product.imagen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EABAC2-354B-9447-A57C-D7C26BC88B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C77BC13-225C-4F49-BFF0-20FCFCE1697A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="1280" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1242,550 +1242,550 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>103</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
         <v>170</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>104</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
         <v>171</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>105</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
         <v>171</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>106</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
         <v>172</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>107</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
         <v>172</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>108</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
         <v>172</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>109</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
         <v>204</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>110</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
         <v>204</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>111</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
         <v>204</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>112</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
         <v>205</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1793,194 +1793,194 @@
       <c r="A52" t="s">
         <v>114</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" t="s">
         <v>206</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>115</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
         <v>207</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>116</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
         <v>207</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>117</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s">
         <v>207</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>118</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
         <v>208</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>119</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" t="s">
         <v>208</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>120</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
         <v>209</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>121</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" t="s">
         <v>210</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>122</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" t="s">
         <v>210</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
         <v>211</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
         <v>211</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>125</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
         <v>212</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>126</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" t="s">
         <v>212</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>127</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" t="s">
         <v>212</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>128</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
         <v>213</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>129</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
         <v>213</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>130</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
         <v>213</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1988,106 +1988,106 @@
       <c r="A71" t="s">
         <v>132</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" t="s">
         <v>212</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>133</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" t="s">
         <v>212</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>134</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" t="s">
         <v>213</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>135</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" t="s">
         <v>214</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>136</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" t="s">
         <v>214</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>137</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" t="s">
         <v>215</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>138</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" t="s">
         <v>215</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>139</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" t="s">
         <v>215</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>140</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" t="s">
         <v>216</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>141</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       <c r="A82" t="s">
         <v>142</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       <c r="A83" t="s">
         <v>143</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2111,29 +2111,29 @@
       <c r="A84" t="s">
         <v>144</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
         <v>229</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>145</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" t="s">
         <v>229</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       <c r="A87" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2149,29 +2149,29 @@
       <c r="A88" t="s">
         <v>148</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" t="s">
         <v>223</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>149</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" t="s">
         <v>224</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>150</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2179,128 +2179,128 @@
       <c r="A91" t="s">
         <v>151</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" t="s">
         <v>225</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>152</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" t="s">
         <v>230</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>153</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" t="s">
         <v>228</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>154</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" t="s">
         <v>231</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>155</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" t="s">
         <v>227</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>156</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" t="s">
         <v>219</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>157</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" t="s">
         <v>218</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>158</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" t="s">
         <v>218</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>159</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" t="s">
         <v>221</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>160</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" t="s">
         <v>222</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>161</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" t="s">
         <v>220</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>162</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2308,16 +2308,16 @@
       <c r="A106" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>164</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="A108" t="s">
         <v>165</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2333,44 +2333,44 @@
       <c r="A110" t="s">
         <v>166</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" t="s">
         <v>217</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>167</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" t="s">
         <v>217</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>168</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C112" t="s">
         <v>217</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>169</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C113" t="s">
         <v>232</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">

--- a/product.imagen.xlsx
+++ b/product.imagen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C77BC13-225C-4F49-BFF0-20FCFCE1697A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3715C9B-00EE-D142-BD4A-D3839D203A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="1280" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1243,549 +1243,549 @@
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C41" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C43" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C45" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C47" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C48" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C49" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C50" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1793,194 +1793,194 @@
       <c r="A52" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C52" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C53" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C54" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C55" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C56" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C57" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C58" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C59" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C60" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C61" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C62" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C64" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C65" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>127</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C66" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C67" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C68" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C69" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1988,106 +1988,106 @@
       <c r="A71" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C71" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C72" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>134</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C73" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C74" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C75" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C76" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C77" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>139</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C78" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C79" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>141</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       <c r="A82" t="s">
         <v>142</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       <c r="A83" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2111,29 +2111,29 @@
       <c r="A84" t="s">
         <v>144</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C84" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>145</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C85" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>146</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       <c r="A87" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2149,29 +2149,29 @@
       <c r="A88" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
+        <v>223</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C88" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C89" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>150</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2179,128 +2179,128 @@
       <c r="A91" t="s">
         <v>151</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C91" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>152</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
+        <v>230</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C92" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>153</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
+        <v>228</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C93" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C94" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
+        <v>227</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C95" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>156</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C97" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>157</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C98" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>158</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C99" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>159</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C100" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>160</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C101" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>161</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C102" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>162</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2308,16 +2308,16 @@
       <c r="A106" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>164</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="A108" t="s">
         <v>165</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2333,44 +2333,44 @@
       <c r="A110" t="s">
         <v>166</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C110" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>167</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C111" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>168</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C112" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>169</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C113" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">

--- a/product.imagen.xlsx
+++ b/product.imagen.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3715C9B-00EE-D142-BD4A-D3839D203A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD80A6F6-2F17-994F-8E58-17C27973D8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="1280" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="1280" windowWidth="23780" windowHeight="14280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imagenes" sheetId="1" r:id="rId1"/>
+    <sheet name="Validacion" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="275">
   <si>
     <t>Apple - iPhone 8 64GB</t>
   </si>
@@ -844,13 +845,22 @@
   </si>
   <si>
     <t>FIN</t>
+  </si>
+  <si>
+    <t>Orden de Columnas:</t>
+  </si>
+  <si>
+    <t>ID | JPG | Nombre</t>
+  </si>
+  <si>
+    <t>Agregar Fila al final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,13 +879,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -890,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -902,6 +926,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,7 +1267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A102" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
@@ -2382,4 +2407,39 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C033D5-1C2D-2549-90E2-D3E06F1A87E5}">
+  <dimension ref="C5:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/product.imagen.xlsx
+++ b/product.imagen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD80A6F6-2F17-994F-8E58-17C27973D8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E90C8B-600C-FE47-A5C2-1C5934DE5EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="1280" windowWidth="23780" windowHeight="14280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="1280" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imagenes" sheetId="1" r:id="rId1"/>
@@ -1267,7 +1267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
@@ -2413,7 +2413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C033D5-1C2D-2549-90E2-D3E06F1A87E5}">
   <dimension ref="C5:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/product.imagen.xlsx
+++ b/product.imagen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E90C8B-600C-FE47-A5C2-1C5934DE5EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F385BC95-3796-2B40-AD07-55EFF1E06D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="1280" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="276">
   <si>
     <t>Apple - iPhone 8 64GB</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>Agregar Fila al final</t>
+  </si>
+  <si>
+    <t>dell-v3590</t>
   </si>
 </sst>
 </file>
@@ -1267,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1809,6 +1812,9 @@
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>275</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>86</v>

--- a/product.imagen.xlsx
+++ b/product.imagen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F385BC95-3796-2B40-AD07-55EFF1E06D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2109A691-0C63-2B45-AD25-23F3D6C8B7A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="1280" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1270,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/product.imagen.xlsx
+++ b/product.imagen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2109A691-0C63-2B45-AD25-23F3D6C8B7A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39F7C45-7A1C-8C47-BDA7-F2B9ED946084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="1280" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="277">
   <si>
     <t>Apple - iPhone 8 64GB</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Asus - VivoBook 14" Laptop - Intel Core i5 - Memoria 8Gb - HD 1TB - Video MX 2GB</t>
   </si>
   <si>
-    <t>Asus - VivoBook 15,6" Laptop - Intel Core i7 - Memoria 12Gb - SSD 256GB</t>
-  </si>
-  <si>
     <t>Asus - VivoBook 15,6" Laptop - AMD Ryzen 5 - Memoria 8Gb - SSD 512GB - Video RX 4GB</t>
   </si>
   <si>
@@ -857,6 +854,12 @@
   </si>
   <si>
     <t>dell-v3590</t>
+  </si>
+  <si>
+    <t>Asus - VivoBook 15,6" Laptop - Intel Core i7 - Memoria 12Gb - SSD 512GB</t>
+  </si>
+  <si>
+    <t>asus-x512</t>
   </si>
 </sst>
 </file>
@@ -1270,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1283,10 +1286,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1294,10 +1297,10 @@
     </row>
     <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1305,10 +1308,10 @@
     </row>
     <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1316,10 +1319,10 @@
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1327,10 +1330,10 @@
     </row>
     <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1338,10 +1341,10 @@
     </row>
     <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1349,10 +1352,10 @@
     </row>
     <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -1360,10 +1363,10 @@
     </row>
     <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -1371,10 +1374,10 @@
     </row>
     <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1382,10 +1385,10 @@
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -1393,10 +1396,10 @@
     </row>
     <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -1404,10 +1407,10 @@
     </row>
     <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -1415,10 +1418,10 @@
     </row>
     <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1426,10 +1429,10 @@
     </row>
     <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -1437,10 +1440,10 @@
     </row>
     <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -1448,10 +1451,10 @@
     </row>
     <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1459,10 +1462,10 @@
     </row>
     <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
@@ -1470,10 +1473,10 @@
     </row>
     <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
@@ -1481,10 +1484,10 @@
     </row>
     <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -1492,10 +1495,10 @@
     </row>
     <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>19</v>
@@ -1503,10 +1506,10 @@
     </row>
     <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -1514,10 +1517,10 @@
     </row>
     <row r="22" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
@@ -1525,10 +1528,10 @@
     </row>
     <row r="23" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -1536,10 +1539,10 @@
     </row>
     <row r="24" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>23</v>
@@ -1547,10 +1550,10 @@
     </row>
     <row r="25" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>24</v>
@@ -1558,10 +1561,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>25</v>
@@ -1569,10 +1572,10 @@
     </row>
     <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>26</v>
@@ -1580,10 +1583,10 @@
     </row>
     <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>27</v>
@@ -1591,10 +1594,10 @@
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
@@ -1602,10 +1605,10 @@
     </row>
     <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>29</v>
@@ -1613,10 +1616,10 @@
     </row>
     <row r="31" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>30</v>
@@ -1624,10 +1627,10 @@
     </row>
     <row r="32" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>31</v>
@@ -1635,10 +1638,10 @@
     </row>
     <row r="33" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -1646,10 +1649,10 @@
     </row>
     <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>33</v>
@@ -1657,10 +1660,10 @@
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>34</v>
@@ -1668,10 +1671,10 @@
     </row>
     <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>35</v>
@@ -1679,10 +1682,10 @@
     </row>
     <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>36</v>
@@ -1690,10 +1693,10 @@
     </row>
     <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>37</v>
@@ -1701,21 +1704,21 @@
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>38</v>
@@ -1723,10 +1726,10 @@
     </row>
     <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>39</v>
@@ -1734,21 +1737,21 @@
     </row>
     <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>40</v>
@@ -1756,21 +1759,21 @@
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>42</v>
@@ -1778,10 +1781,10 @@
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>43</v>
@@ -1789,10 +1792,10 @@
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>44</v>
@@ -1800,10 +1803,10 @@
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>45</v>
@@ -1811,21 +1814,21 @@
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>46</v>
@@ -1833,10 +1836,10 @@
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>47</v>
@@ -1844,10 +1847,10 @@
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>48</v>
@@ -1855,10 +1858,10 @@
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>49</v>
@@ -1866,10 +1869,10 @@
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>50</v>
@@ -1877,10 +1880,10 @@
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>51</v>
@@ -1888,10 +1891,10 @@
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>52</v>
@@ -1899,10 +1902,10 @@
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>53</v>
@@ -1910,10 +1913,10 @@
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>54</v>
@@ -1921,10 +1924,10 @@
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>55</v>
@@ -1932,10 +1935,10 @@
     </row>
     <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>56</v>
@@ -1943,10 +1946,10 @@
     </row>
     <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>57</v>
@@ -1954,10 +1957,10 @@
     </row>
     <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>58</v>
@@ -1965,10 +1968,10 @@
     </row>
     <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>59</v>
@@ -1976,10 +1979,10 @@
     </row>
     <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>60</v>
@@ -1987,10 +1990,10 @@
     </row>
     <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>61</v>
@@ -1998,18 +2001,18 @@
     </row>
     <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>62</v>
@@ -2017,32 +2020,32 @@
     </row>
     <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>63</v>
@@ -2050,10 +2053,10 @@
     </row>
     <row r="74" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>64</v>
@@ -2061,10 +2064,10 @@
     </row>
     <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>65</v>
@@ -2072,10 +2075,10 @@
     </row>
     <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>66</v>
@@ -2083,10 +2086,10 @@
     </row>
     <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>67</v>
@@ -2094,10 +2097,10 @@
     </row>
     <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>68</v>
@@ -2105,10 +2108,10 @@
     </row>
     <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>68</v>
@@ -2116,7 +2119,7 @@
     </row>
     <row r="81" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>69</v>
@@ -2124,7 +2127,7 @@
     </row>
     <row r="82" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>70</v>
@@ -2132,7 +2135,7 @@
     </row>
     <row r="83" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>71</v>
@@ -2140,204 +2143,207 @@
     </row>
     <row r="84" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B85" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="B86" t="s">
+        <v>276</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>72</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B99" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B101" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3" t="s">
@@ -2346,67 +2352,67 @@
     </row>
     <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2431,18 +2437,18 @@
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" t="s">
         <v>272</v>
-      </c>
-      <c r="D5" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/product.imagen.xlsx
+++ b/product.imagen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39F7C45-7A1C-8C47-BDA7-F2B9ED946084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D1A082-E0AF-0646-B9E9-CF1498EAE3C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="1280" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="283">
   <si>
     <t>Apple - iPhone 8 64GB</t>
   </si>
@@ -860,6 +860,24 @@
   </si>
   <si>
     <t>asus-x512</t>
+  </si>
+  <si>
+    <t>producto_10201_04016</t>
+  </si>
+  <si>
+    <t>asus-gl703gs</t>
+  </si>
+  <si>
+    <t>Asus - ROG Strix Scar II</t>
+  </si>
+  <si>
+    <t>producto_10201_05007</t>
+  </si>
+  <si>
+    <t>MSI RTX 2060 17p</t>
+  </si>
+  <si>
+    <t>msi-ge75</t>
   </si>
 </sst>
 </file>
@@ -1271,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2267,151 +2285,173 @@
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>155</v>
-      </c>
-      <c r="B97" t="s">
-        <v>218</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>79</v>
+    <row r="96" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
         <v>217</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B100" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>160</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>219</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>280</v>
+      </c>
+      <c r="B104" t="s">
+        <v>282</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>161</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="108" spans="1:3" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3" t="s">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>163</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>164</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>165</v>
-      </c>
-      <c r="B110" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>166</v>
-      </c>
-      <c r="B111" t="s">
-        <v>216</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B112" t="s">
         <v>216</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B113" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>167</v>
+      </c>
+      <c r="B114" t="s">
+        <v>216</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>270</v>
       </c>
     </row>
